--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT_begginers\СБ-16-00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{194FF9A1-380F-49CB-AE98-9EEF928C1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7AEE36-E2FA-46A1-8947-76891EE74A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1CF54838-092C-425E-818F-42996F27687E}"/>
   </bookViews>
@@ -412,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCD12E2-A8D8-4A31-8FC8-E93AFCB06D26}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
